--- a/Lab/Titanic/Solutions/Propensity score and Common Support example.xlsx
+++ b/Lab/Titanic/Solutions/Propensity score and Common Support example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference-1/Lab/Titanic/Solutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD005C31-D3D9-144A-A366-3969C9D6F9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CF7C19-38FC-0D42-8E9F-40ED46C1D96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="44680" windowHeight="23700" xr2:uid="{70D4F39D-57B2-0742-904C-944A6F5FA429}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
   <si>
     <t>A</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Strata</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>Total</t>
@@ -183,6 +180,12 @@
   <si>
     <t>Support</t>
   </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
 </sst>
 </file>
 
@@ -205,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,8 +251,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -319,30 +328,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B670F3-CAE5-8F48-8601-EBDB023A6886}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="370" zoomScaleNormal="370" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="400" zoomScaleNormal="370" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,13 +752,13 @@
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
         <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -728,13 +777,13 @@
       <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="9">
         <v>3</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="10">
         <v>2</v>
       </c>
       <c r="I3">
@@ -757,13 +806,13 @@
       <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="11">
         <v>2</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="12">
         <v>2</v>
       </c>
       <c r="I4">
@@ -789,10 +838,10 @@
       <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="11">
         <v>0</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="12">
         <v>1</v>
       </c>
       <c r="I5">
@@ -803,25 +852,25 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="13">
         <v>1</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="14">
         <v>1</v>
       </c>
       <c r="I6">
@@ -859,13 +908,13 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
         <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -882,16 +931,16 @@
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="16">
         <f>3/5</f>
         <v>0.6</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="19">
         <f>2/5</f>
         <v>0.4</v>
       </c>
@@ -913,16 +962,16 @@
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="17">
         <f>2/4</f>
         <v>0.5</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="20">
         <f>2/4</f>
         <v>0.5</v>
       </c>
@@ -943,16 +992,16 @@
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="6">
         <v>1</v>
       </c>
       <c r="I11">
@@ -973,15 +1022,15 @@
         <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="18">
         <v>0.5</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="21">
         <v>0.5</v>
       </c>
       <c r="I12">
@@ -1001,33 +1050,33 @@
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>33</v>
+      <c r="E13" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Lab/Titanic/Solutions/Propensity score and Common Support example.xlsx
+++ b/Lab/Titanic/Solutions/Propensity score and Common Support example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference-1/Lab/Titanic/Solutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CF7C19-38FC-0D42-8E9F-40ED46C1D96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF32DEC-520F-3945-A9CF-814BBFEAC276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="44680" windowHeight="23700" xr2:uid="{70D4F39D-57B2-0742-904C-944A6F5FA429}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
   <si>
     <t>A</t>
   </si>
@@ -185,6 +185,39 @@
   </si>
   <si>
     <t>Control</t>
+  </si>
+  <si>
+    <t>Propensity scores</t>
+  </si>
+  <si>
+    <t>Counts or frequencies</t>
+  </si>
+  <si>
+    <t>Mean mortality</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>strata-specific weights</t>
+  </si>
+  <si>
+    <t>w_mold</t>
+  </si>
+  <si>
+    <t>w_fold</t>
+  </si>
+  <si>
+    <t>w_mchild</t>
+  </si>
+  <si>
+    <t>w_femchild</t>
+  </si>
+  <si>
+    <t>pscore</t>
   </si>
 </sst>
 </file>
@@ -369,14 +402,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -389,9 +421,13 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B670F3-CAE5-8F48-8601-EBDB023A6886}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="400" zoomScaleNormal="370" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="400" zoomScaleNormal="370" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -731,6 +767,9 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -777,13 +816,13 @@
       <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>3</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>2</v>
       </c>
       <c r="I3">
@@ -806,13 +845,13 @@
       <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>2</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>2</v>
       </c>
       <c r="I4">
@@ -838,10 +877,10 @@
       <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>1</v>
       </c>
       <c r="I5">
@@ -864,13 +903,13 @@
       <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>1</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>1</v>
       </c>
       <c r="I6">
@@ -890,6 +929,9 @@
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -908,7 +950,7 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
         <v>41</v>
@@ -933,16 +975,16 @@
       <c r="E9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <f>3/5</f>
         <v>0.6</v>
       </c>
-      <c r="H9" s="19">
-        <f>2/5</f>
-        <v>0.4</v>
+      <c r="H9" s="15">
+        <f>3/5</f>
+        <v>0.6</v>
       </c>
       <c r="I9">
         <v>5</v>
@@ -964,14 +1006,14 @@
       <c r="E10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <f>2/4</f>
         <v>0.5</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="16">
         <f>2/4</f>
         <v>0.5</v>
       </c>
@@ -992,17 +1034,17 @@
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>0</v>
       </c>
-      <c r="H11" s="6">
-        <v>1</v>
+      <c r="H11" s="7">
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1024,13 +1066,13 @@
       <c r="E12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>0.5</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="17">
         <v>0.5</v>
       </c>
       <c r="I12">
@@ -1069,14 +1111,107 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="F21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0.44</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="24">
+        <f>G21-H21</f>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="F22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H22" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="I22" s="24">
+        <f t="shared" ref="I22:I24" si="0">G22-H22</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="20">
+        <v>0</v>
+      </c>
+      <c r="H23" s="21">
+        <v>1</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="22">
+        <v>1</v>
+      </c>
+      <c r="H24" s="23">
+        <v>1</v>
+      </c>
+      <c r="I24" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Lab/Titanic/Solutions/Propensity score and Common Support example.xlsx
+++ b/Lab/Titanic/Solutions/Propensity score and Common Support example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference-1/Lab/Titanic/Solutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF32DEC-520F-3945-A9CF-814BBFEAC276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E2BDE5-494F-2248-B16A-FB6C723997C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="44680" windowHeight="23700" xr2:uid="{70D4F39D-57B2-0742-904C-944A6F5FA429}"/>
   </bookViews>
@@ -745,7 +745,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="400" zoomScaleNormal="370" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
